--- a/Sandbox/pyIIF/MODS_Inst.xlsx
+++ b/Sandbox/pyIIF/MODS_Inst.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pogge.1/Documents/Instruments/MODS/2025 Archon Upgrade/Software/MODS2025/Sandbox/pyIIF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rwpogge/Documents/GitHub/MODS2025/Sandbox/pyIIF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA12D40-9589-4D46-A61E-58979EA24BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65460CCC-E3B6-6D48-9ED8-D84463A4E7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="9260" windowWidth="27140" windowHeight="17440" activeTab="1" xr2:uid="{7E708C7A-B245-E347-A364-66A903B9C955}"/>
+    <workbookView xWindow="360" yWindow="9260" windowWidth="27140" windowHeight="17440" xr2:uid="{7E708C7A-B245-E347-A364-66A903B9C955}"/>
   </bookViews>
   <sheets>
     <sheet name="MODS Blue" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="244">
   <si>
     <t>dtype</t>
   </si>
@@ -750,6 +750,9 @@
   </si>
   <si>
     <t xml:space="preserve">S_MODSBlueVacuumGaugePower          </t>
+  </si>
+  <si>
+    <t>int(shm_addr-&gt;MODS.pos[idev]), 0 = timestamp (if used)</t>
   </si>
 </sst>
 </file>
@@ -1787,8 +1790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F234B675-F972-6444-B567-9C645E2157C8}">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -2852,7 +2855,7 @@
         <v>176</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>178</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -2868,8 +2871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B57631-767B-4941-94EB-04DE2BE9CB71}">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD31"/>
+    <sheetView topLeftCell="A33" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
